--- a/11-CollaborationList/Strathclyde.xlsx
+++ b/11-CollaborationList/Strathclyde.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A03F28-4E50-1241-8776-BA5DC9AB32E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01C6D17-6EAC-1A43-9449-4F6191D05B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2300" windowWidth="28040" windowHeight="17440" xr2:uid="{62BBBF2E-4FA5-B54C-910C-350A15F306C8}"/>
+    <workbookView xWindow="14780" yWindow="7200" windowWidth="28040" windowHeight="17440" xr2:uid="{BC688C27-9C2C-C845-8744-FF1C33AFE83C}"/>
   </bookViews>
   <sheets>
     <sheet name="Strathclyde" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Title</t>
   </si>
@@ -85,13 +85,19 @@
     <t>Paul McKenna</t>
   </si>
   <si>
+    <t>Strath</t>
+  </si>
+  <si>
     <t>Department of Physics, SUPA, University of Strathclyde, Glasgow G4 0NG, UK</t>
   </si>
   <si>
     <t>CI-Strth</t>
   </si>
   <si>
-    <t>University of Strathclyde and Cockcroft Institiute for Accelerator Science, Daresbury</t>
+    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
+  </si>
+  <si>
+    <t>0000-0001-8061-7091</t>
   </si>
   <si>
     <t>IB</t>
@@ -112,7 +118,28 @@
     <t>david.c.speirs@STRATH.AC.UK</t>
   </si>
   <si>
-    <t>D. Spiers</t>
+    <t>David Spiers</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Whyte</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>colin.whyte@strath.ac.uk</t>
+  </si>
+  <si>
+    <t>Colin Whyte</t>
+  </si>
+  <si>
+    <t>0000-0002-5431-2443</t>
+  </si>
+  <si>
+    <t>ProgMan</t>
   </si>
   <si>
     <t>Robert</t>
@@ -127,7 +154,7 @@
     <t>Bob.Bingham@stfc.ac.uk</t>
   </si>
   <si>
-    <t>R. Bingham</t>
+    <t>Robert Bingham</t>
   </si>
   <si>
     <t>CLF</t>
@@ -136,6 +163,9 @@
     <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
   </si>
   <si>
+    <t>0000-0002-9843-7635</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr </t>
   </si>
   <si>
@@ -157,22 +187,16 @@
     <t>WPM-WPB</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Alderton</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>MATTHEW.ALDERTON@STRATH.AC.UK</t>
-  </si>
-  <si>
-    <t>M. Alderton</t>
-  </si>
-  <si>
-    <t>Strathclyde</t>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>robbie.wilson@strath.ac.uk</t>
+  </si>
+  <si>
+    <t>Robbie Wilson</t>
   </si>
 </sst>
 </file>
@@ -717,24 +741,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E78F8E4C-DED9-164F-BCA5-6398B92D1AA7}" name="Table1" displayName="Table1" ref="A1:O6" totalsRowShown="0">
-  <autoFilter ref="A1:O6" xr:uid="{E78F8E4C-DED9-164F-BCA5-6398B92D1AA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB6CE87-096A-6140-9944-480622139B7F}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0">
+  <autoFilter ref="A1:O7" xr:uid="{ECB6CE87-096A-6140-9944-480622139B7F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{FAB605DF-91A4-2B45-9865-F3EAC0560105}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{6BA06772-CF06-8F48-9FCD-9D2716AC4EFA}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{02E9A87F-FBC1-464F-8ACF-C380FE40D6B4}" name="Surname"/>
-    <tableColumn id="4" xr3:uid="{DD303468-2071-E044-A4B2-F0A84CDAD840}" name="Initials"/>
-    <tableColumn id="5" xr3:uid="{3C5F76BC-0C76-DF46-9FDB-B98B01BFAEA8}" name="email address"/>
-    <tableColumn id="6" xr3:uid="{5236B0A8-ACE2-9F4E-BDF3-BD54023D7AC8}" name="Name on Publications "/>
-    <tableColumn id="7" xr3:uid="{19F7354C-6BF9-A346-9FAB-B636110AAC4F}" name="Organisation"/>
-    <tableColumn id="8" xr3:uid="{AD87E099-D758-ED4B-8878-0246AB3FDB25}" name="Address"/>
-    <tableColumn id="9" xr3:uid="{96691368-EB91-8F4C-94E6-F59685865292}" name="Number of affiliations"/>
-    <tableColumn id="10" xr3:uid="{EB795CCE-C56F-9A45-BB2E-2983DFFC03F0}" name="Affiliation code"/>
-    <tableColumn id="11" xr3:uid="{99DBF9BF-5CB1-A04A-965C-57A07C8D499D}" name="Affiliation address"/>
-    <tableColumn id="12" xr3:uid="{C9E5746F-7759-F847-996A-57075239B6A4}" name="Affiliation code2"/>
-    <tableColumn id="13" xr3:uid="{63DAD201-EDB4-0D4A-BBDB-9D67A55930FA}" name="Affiliation address3"/>
-    <tableColumn id="14" xr3:uid="{11D960BC-F9DB-9149-BBC5-F87889BF8DAC}" name="ORCID "/>
-    <tableColumn id="15" xr3:uid="{8DFD9FD2-B823-5C4C-81DE-956695E8D448}" name="Role"/>
+    <tableColumn id="1" xr3:uid="{979B12E7-10B5-D040-937E-7E70CBBE4AF5}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{01B29FA0-3B3E-3241-BF35-677CC491D40F}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{753B09D7-7608-F949-B2DA-AEFE1DEFBB3F}" name="Surname"/>
+    <tableColumn id="4" xr3:uid="{E6F8328E-CE34-0A44-9AF4-FCAC829C15A5}" name="Initials"/>
+    <tableColumn id="5" xr3:uid="{6427599E-080A-2B4A-8E4E-68949E64A70D}" name="email address"/>
+    <tableColumn id="6" xr3:uid="{6AF86201-AFEB-CD4A-A148-9D899A529CC7}" name="Name on Publications "/>
+    <tableColumn id="7" xr3:uid="{C91C0AA0-FCA7-AA4E-A959-27DF00E725E9}" name="Organisation"/>
+    <tableColumn id="8" xr3:uid="{876C11B4-C218-DC4A-835D-E4BA03BE2DCE}" name="Address"/>
+    <tableColumn id="9" xr3:uid="{E7957FDC-D402-0148-90F1-BCA755391838}" name="Number of affiliations"/>
+    <tableColumn id="10" xr3:uid="{BF74D185-039B-6247-838F-61AE6A020D54}" name="Affiliation code"/>
+    <tableColumn id="11" xr3:uid="{35864D5D-9D88-B44D-B2F1-278A6DEF6546}" name="Affiliation address"/>
+    <tableColumn id="12" xr3:uid="{B9905C1D-5115-C049-A1CF-6D3796B101BA}" name="Affiliation code2"/>
+    <tableColumn id="13" xr3:uid="{A8991251-9DC4-F145-ACD5-B157717A9A86}" name="Affiliation address3"/>
+    <tableColumn id="14" xr3:uid="{2B75A119-DA20-0343-AA92-0A41D43D8686}" name="ORCID "/>
+    <tableColumn id="15" xr3:uid="{435CE3BA-B698-7845-9A53-571601DA55A6}" name="Role"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1056,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB09FD36-6012-9D4F-9DB4-C693B0E8E5B8}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37462301-BAEE-7042-932B-8070215E2573}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,10 +1093,10 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="81.5" bestFit="1" customWidth="1"/>
@@ -1149,157 +1173,213 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/11-CollaborationList/Strathclyde.xlsx
+++ b/11-CollaborationList/Strathclyde.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01C6D17-6EAC-1A43-9449-4F6191D05B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CBD3F7-1408-4C4F-B4B5-9208C26FECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="7200" windowWidth="28040" windowHeight="17440" xr2:uid="{BC688C27-9C2C-C845-8744-FF1C33AFE83C}"/>
+    <workbookView xWindow="43360" yWindow="1760" windowWidth="28040" windowHeight="17440" xr2:uid="{BC688C27-9C2C-C845-8744-FF1C33AFE83C}"/>
   </bookViews>
   <sheets>
     <sheet name="Strathclyde" sheetId="1" r:id="rId1"/>
@@ -85,15 +85,9 @@
     <t>Paul McKenna</t>
   </si>
   <si>
-    <t>Strath</t>
-  </si>
-  <si>
     <t>Department of Physics, SUPA, University of Strathclyde, Glasgow G4 0NG, UK</t>
   </si>
   <si>
-    <t>CI-Strth</t>
-  </si>
-  <si>
     <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
   </si>
   <si>
@@ -197,6 +191,12 @@
   </si>
   <si>
     <t>Robbie Wilson</t>
+  </si>
+  <si>
+    <t>CI-DL</t>
+  </si>
+  <si>
+    <t>Strathclyde</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,101 +1173,101 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1275,104 +1275,104 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="I7">
         <v>0</v>
